--- a/excel/T-特效配置.xlsx
+++ b/excel/T-特效配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>导出类型</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>自身特效</t>
+  </si>
+  <si>
+    <t>红色球</t>
+  </si>
+  <si>
+    <t>雷球</t>
+  </si>
+  <si>
+    <t>法术箭</t>
   </si>
 </sst>
 </file>
@@ -620,6 +629,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -628,12 +643,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -869,13 +878,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,13 +1031,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1038,6 +1047,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1048,9 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1219,9 +1228,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1274,16 +1283,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1608,7 +1617,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1753,21 +1762,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+    <row r="12" spans="2:5">
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+    <row r="13" spans="2:5">
+      <c r="B13" s="11">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="2:5">
+      <c r="B14" s="11">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5">

--- a/excel/T-特效配置.xlsx
+++ b/excel/T-特效配置.xlsx
@@ -4,17 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="飞行特效" sheetId="1" r:id="rId1"/>
+    <sheet name="所在位置特效(自身特效)" sheetId="2" r:id="rId2"/>
+    <sheet name="特殊特效" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>导出类型</t>
   </si>
@@ -25,13 +40,13 @@
     <t>导出文件头</t>
   </si>
   <si>
-    <t>Effect={</t>
+    <t>FlyEffect={</t>
   </si>
   <si>
     <t>导出文件</t>
   </si>
   <si>
-    <t>effect.json</t>
+    <t>flyEffect.json</t>
   </si>
   <si>
     <t>导出文件尾</t>
@@ -49,9 +64,6 @@
     <t>id唯一</t>
   </si>
   <si>
-    <t>特效名称</t>
-  </si>
-  <si>
     <t>特效类型(0图片  1帧动画)</t>
   </si>
   <si>
@@ -70,9 +82,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>effectName</t>
-  </si>
-  <si>
     <t>effectType</t>
   </si>
   <si>
@@ -95,12 +104,30 @@
   </si>
   <si>
     <t>法术箭</t>
+  </si>
+  <si>
+    <t>SelfEffect={</t>
+  </si>
+  <si>
+    <t>selfEffect.json</t>
+  </si>
+  <si>
+    <t>公共自身特效</t>
+  </si>
+  <si>
+    <t>SpecialEffect={</t>
+  </si>
+  <si>
+    <t>specialEffect.json</t>
+  </si>
+  <si>
+    <t>灵能陷阱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -153,6 +180,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -161,7 +290,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,145 +330,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="华文细黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="华文新魏"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -410,37 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,78 +625,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -531,84 +636,6 @@
           <color theme="1"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -709,21 +736,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -734,21 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,6 +764,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +834,21 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -836,174 +863,174 @@
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1019,58 +1046,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="13" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -1079,97 +1106,97 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,64 +1241,64 @@
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="我的单元格1 2 2" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="黑色单元格1" xfId="12"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="我的单元格2 2 2" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="我的强调" xfId="27"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="黑色标题 2" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="46" builtinId="37"/>
-    <cellStyle name="常规 3 2" xfId="47"/>
-    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="50" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="54" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="我的单元格1 2 2" xfId="49"/>
+    <cellStyle name="黑色单元格1" xfId="50"/>
+    <cellStyle name="常规 6" xfId="51"/>
+    <cellStyle name="黑色单元格1 2" xfId="52"/>
+    <cellStyle name="我的单元格2 2 2" xfId="53"/>
+    <cellStyle name="我的强调" xfId="54"/>
+    <cellStyle name="黑色标题 2" xfId="55"/>
+    <cellStyle name="常规 3 2" xfId="56"/>
+    <cellStyle name="常规 2 2" xfId="57"/>
+    <cellStyle name="常规 2 3" xfId="58"/>
     <cellStyle name="常规 2" xfId="59"/>
     <cellStyle name="我的外边框 2 2" xfId="60"/>
     <cellStyle name="常规 2 4" xfId="61"/>
@@ -1331,13 +1358,6 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1345,6 +1365,13 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1616,11 +1643,11 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="20.425" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
@@ -1669,7 +1696,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1682,159 +1709,430 @@
       <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
       <c r="B8" s="11">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>22</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>24</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:4">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>25</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:4">
+      <c r="A13" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:4">
+      <c r="A14" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>26</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7 B6 B5:D5">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  <conditionalFormatting sqref="B6:B7 B5:C5">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B7 C5">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7 B5:C5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/T-特效配置.xlsx
+++ b/excel/T-特效配置.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="飞行特效" sheetId="1" r:id="rId1"/>
-    <sheet name="所在位置特效(自身特效)" sheetId="2" r:id="rId2"/>
-    <sheet name="特殊特效" sheetId="3" r:id="rId3"/>
+    <sheet name="flyEffect-飞行特效" sheetId="1" r:id="rId1"/>
+    <sheet name="selfEffect-所在位置特效(自身特效)" sheetId="2" r:id="rId2"/>
+    <sheet name="specialEffect-特殊特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,33 +29,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>导出类型</t>
   </si>
   <si>
-    <t>base</t>
+    <t>array</t>
   </si>
   <si>
-    <t>导出文件头</t>
+    <t>desc</t>
   </si>
   <si>
-    <t>FlyEffect={</t>
+    <t>id</t>
   </si>
   <si>
-    <t>导出文件</t>
+    <t>effectType</t>
   </si>
   <si>
-    <t>flyEffect.json</t>
-  </si>
-  <si>
-    <t>导出文件尾</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>key数量</t>
+    <t>defaultRotation</t>
   </si>
   <si>
     <t>配置备注</t>
@@ -79,13 +70,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>effectType</t>
-  </si>
-  <si>
-    <t>defaultRotation</t>
+    <t>number</t>
   </si>
   <si>
     <t>弓箭</t>
@@ -106,19 +91,7 @@
     <t>法术箭</t>
   </si>
   <si>
-    <t>SelfEffect={</t>
-  </si>
-  <si>
-    <t>selfEffect.json</t>
-  </si>
-  <si>
     <t>公共自身特效</t>
-  </si>
-  <si>
-    <t>SpecialEffect={</t>
-  </si>
-  <si>
-    <t>specialEffect.json</t>
   </si>
   <si>
     <t>灵能陷阱</t>
@@ -134,7 +107,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,11 +125,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -166,18 +152,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -404,7 +389,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +410,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +669,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -691,6 +688,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -731,6 +743,21 @@
       <top/>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,58 +905,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,96 +962,102 @@
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="15" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1046,157 +1073,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="13" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="15" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,34 +1235,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1641,109 +1668,106 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="20.425" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="14.275" customWidth="1"/>
     <col min="6" max="6" width="18.475" customWidth="1"/>
+    <col min="8" max="8" width="20.4333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="15"/>
+    <row r="3" ht="15.75" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1753,39 +1777,39 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11">
-        <v>3</v>
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1795,11 +1819,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11">
-        <v>4</v>
+      <c r="A12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1809,11 +1833,11 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11">
-        <v>5</v>
+      <c r="A13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1822,34 +1846,29 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="11">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7 B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1860,136 +1879,121 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="15"/>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="4" ht="15" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  <conditionalFormatting sqref="B3:C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B7 C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1999,138 +2003,134 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="15"/>
+    <row r="3" ht="15.75" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B3">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C3">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B7 B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
